--- a/biology/Biologie cellulaire et moléculaire/CD44_(antigène)/CD44_(antigène).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/CD44_(antigène)/CD44_(antigène).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CD44_(antig%C3%A8ne)</t>
+          <t>CD44_(antigène)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CD44 est une glycoprotéine antigène de type cluster de différenciation. Son gène est CD44[pas clair] situé sur le chromosome 11 humain. C'est le seul membre de la classe K des récepteurs éboueurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CD44_(antig%C3%A8ne)</t>
+          <t>CD44_(antigène)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre d'isoformes a été décrit, dues à un épissage alternatif[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre d'isoformes a été décrit, dues à un épissage alternatif.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CD44_(antig%C3%A8ne)</t>
+          <t>CD44_(antigène)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il agit comme un récepteur à l'acide hyaluronique[6], permettant la stabilisation et la régression d'une inflammation[7]. La protéine CD44 joue un rôle important dans le cancer[Comment ?], en particulier dans les cellules souches cancéreuses, où elle importe des métaux liés à l'acide hyaluronique dans les cellules[8]. En particulier, le fer est essentiel pour les changements épigénitiques[Quoi ?] qui suivent[réf. nécessaire]. Ce processus est aussi important pour l'import de cuivre dans les cellules immunitaires pendant l'inflammation[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il agit comme un récepteur à l'acide hyaluronique, permettant la stabilisation et la régression d'une inflammation. La protéine CD44 joue un rôle important dans le cancer[Comment ?], en particulier dans les cellules souches cancéreuses, où elle importe des métaux liés à l'acide hyaluronique dans les cellules. En particulier, le fer est essentiel pour les changements épigénitiques[Quoi ?] qui suivent[réf. nécessaire]. Ce processus est aussi important pour l'import de cuivre dans les cellules immunitaires pendant l'inflammation.
 </t>
         </is>
       </c>
